--- a/nome_contas.xlsx
+++ b/nome_contas.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,20 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remédios </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mercadinho condomínio </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
